--- a/PREPARE-TIMES-NZ/output/SuppXLS/Scen_Individualistic.xlsx
+++ b/PREPARE-TIMES-NZ/output/SuppXLS/Scen_Individualistic.xlsx
@@ -16,9 +16,8 @@
     <sheet name="Dem_RES" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="ICE_CAR_ban" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Load_Curves" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Solar_re" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Solar_rs" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Trucks" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Solar" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Trucks" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1293,7 +1292,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1316,7 +1315,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
+          <t>~UC_Sets: R_S: AllRegions</t>
         </is>
       </c>
     </row>
@@ -1353,20 +1352,15 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>UC_RHSRT~NI</t>
+          <t>UC_RHST</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>UC_RHSRT~SI</t>
+          <t>UC_RHST~0</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
-        <is>
-          <t>UC_RHSRT~0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
         <is>
           <t>UC_Desc</t>
         </is>
@@ -1375,7 +1369,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UC_SOLARPV_RES</t>
+          <t>UC_SOLARPV_UTILITY</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1385,7 +1379,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ESOL*RES*</t>
+          <t>ESO*UTI*</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1405,402 +1399,806 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>SOLAR residential rooftop potential</t>
+          <t>Ground based solar (tracking and fixed)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="D5" t="inlineStr">
         <is>
-          <t>2030</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.4</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0.5</t>
+          <t>5.99</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="D6" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>2030</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>4.1</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>1.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="inlineStr">
+          <t>8.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2060</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>9.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_E: </t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>UC_N</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Pset_Set</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Pset_PN</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>LimType</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>UC_CAP</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>UC_RHSRTS~NI</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>UC_RHSRTS~SI</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>UC_RHSRTS~0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>UC_Desc</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UC_SOLARPV_COM</t>
+          <t>~UC_T</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_S: AllRegions</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>UC_N</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Pset_Set</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Pset_PN</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>LimType</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>UC_CAP</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>UC_RHST</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>UC_RHST~0</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>UC_Desc</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>UC_SOLARPV_GRDIST</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>ELE</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>ESOL*COM*</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ESO*DIST*</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>UP</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>SOLAR commercial rooftop potential</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="D13" t="inlineStr">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Ground based solar (fixed - distributed)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="D15" t="inlineStr">
         <is>
           <t>2030</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0.8</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2050</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>5.1</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>1.7</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" t="inlineStr">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_E: </t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>UC_N</t>
+          <t>~UC_T</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pset_Set</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Pset_PN</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>LimType</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>UC_CAP</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>UC_RHSRT~NI</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>UC_RHSRT~SI</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>UC_RHSRT~0</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>UC_Desc</t>
+          <t>~UC_Sets: R_S: AllRegions</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>UC_N</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Pset_CI</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Pset_CO</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>LimType</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>UC_NCAP</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>UC_RHST</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>UC_RHST~0</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>UC_Desc</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>SOLAR_LO_Growth_rate</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ELCSOL</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ELCDD</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>LO</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>SOLAR minimal growth rate per year</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">~UC_Sets: T_E: </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>~UC_T</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>~UC_Sets: R_E: AllRegions</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>UC_N</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Pset_Set</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Pset_PN</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>LimType</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>UC_CAP</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>UC_RHSRT~NI</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>UC_RHSRT~SI</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>UC_RHSRT~0</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>UC_Desc</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>UC_SOLARPV_RES</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ELE</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>ESOL*RES*</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>SOLAR residential rooftop potential</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.4</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>1.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">~UC_Sets: T_E: </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>~UC_T</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>~UC_Sets: R_E: AllRegions</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>UC_N</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Pset_Set</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Pset_PN</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>LimType</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>UC_CAP</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>UC_RHSRTS~NI</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>UC_RHSRTS~SI</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>UC_RHSRTS~0</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>UC_Desc</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>UC_SOLARPV_COM</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ELE</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>ESOL*COM*</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>SOLAR commercial rooftop potential</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>5.1</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>1.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">~UC_Sets: T_E: </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>~UC_T</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>~UC_Sets: R_E: AllRegions</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>UC_N</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Pset_Set</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Pset_PN</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>LimType</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>UC_CAP</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>UC_RHSRT~NI</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>UC_RHSRT~SI</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>UC_RHSRT~0</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>UC_Desc</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
           <t>UC_SOLARPV_IND</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>ELE</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>ESOL*IND*</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>UP</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>Solar for industry</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="D21" t="inlineStr">
+    <row r="44">
+      <c r="D44" t="inlineStr">
         <is>
           <t>2030</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="D22" t="inlineStr">
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="D45" t="inlineStr">
         <is>
           <t>2050</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="D23" t="inlineStr">
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="D46" t="inlineStr">
         <is>
           <t>2030</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="D24" t="inlineStr">
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="D47" t="inlineStr">
         <is>
           <t>2050</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1812,424 +2210,6 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">~UC_Sets: T_E: </t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_S: AllRegions</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>UC_N</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Pset_Set</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Pset_PN</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>LimType</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>UC_CAP</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>UC_RHST</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>UC_RHST~0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>UC_Desc</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>UC_SOLARPV_UTILITY</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ELE</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ESO*UTI*</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>UP</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Ground based solar (tracking and fixed)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>5.99</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2030</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>8.15</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2040</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>9.68</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2060</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>9.9</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">~UC_Sets: T_E: </t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_S: AllRegions</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>UC_N</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Pset_Set</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Pset_PN</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>LimType</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>UC_CAP</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>UC_RHST</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>UC_RHST~0</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>UC_Desc</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>UC_SOLARPV_GRDIST</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>ELE</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>ESO*DIST*</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>UP</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Ground based solar (fixed - distributed)</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2030</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">~UC_Sets: T_E: </t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_S: AllRegions</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>UC_N</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Pset_CI</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Pset_CO</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>LimType</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>UC_NCAP</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>UC_RHST</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>UC_RHST~0</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>UC_Desc</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>SOLAR_LO_Growth_rate</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>ELCSOL</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>ELCDD</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>LO</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>SOLAR minimal growth rate per year</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/PREPARE-TIMES-NZ/output/SuppXLS/Scen_Individualistic.xlsx
+++ b/PREPARE-TIMES-NZ/output/SuppXLS/Scen_Individualistic.xlsx
@@ -432,7 +432,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_S: </t>
         </is>
@@ -441,12 +441,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_S: AllRegions</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_S: AllRegions</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="B8" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_S: </t>
         </is>
@@ -631,12 +631,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_S: AllRegions</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_S: AllRegions</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_S: </t>
         </is>
@@ -796,12 +796,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_S: AllRegions</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_S: AllRegions</t>
         </is>
       </c>
     </row>
@@ -952,7 +952,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="inlineStr">
+      <c r="A22" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_S: </t>
         </is>
@@ -961,12 +961,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_S: AllRegions</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_S: AllRegions</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="inlineStr">
+      <c r="A29" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_S: </t>
         </is>
@@ -1126,12 +1126,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_S: AllRegions</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_S: AllRegions</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
@@ -1310,12 +1310,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_S: AllRegions</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_S: AllRegions</t>
         </is>
       </c>
     </row>
@@ -1462,7 +1462,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
@@ -1471,12 +1471,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_S: AllRegions</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_S: AllRegions</t>
         </is>
       </c>
     </row>
@@ -1587,7 +1587,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
@@ -1596,12 +1596,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_S: AllRegions</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_S: AllRegions</t>
         </is>
       </c>
     </row>
@@ -1700,7 +1700,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
@@ -1709,12 +1709,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_E: AllRegions</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="inlineStr">
+      <c r="A32" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
@@ -1866,12 +1866,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_E: AllRegions</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
     </row>
@@ -2014,7 +2014,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="inlineStr">
+      <c r="A40" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
@@ -2023,12 +2023,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_E: AllRegions</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
     </row>
@@ -31520,7 +31520,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_S: </t>
         </is>
@@ -31529,12 +31529,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_S: AllRegions</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_S: AllRegions</t>
         </is>
       </c>
     </row>
@@ -31670,7 +31670,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="B8" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_S: </t>
         </is>
@@ -31679,12 +31679,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_S: AllRegions</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_S: AllRegions</t>
         </is>
       </c>
     </row>

--- a/PREPARE-TIMES-NZ/output/SuppXLS/Scen_Individualistic.xlsx
+++ b/PREPARE-TIMES-NZ/output/SuppXLS/Scen_Individualistic.xlsx
@@ -434,14 +434,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t xml:space="preserve">~UC_Sets: T_S: </t>
+          <t>~UC_Sets: R_S: AllRegions</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>~UC_Sets: R_S: AllRegions</t>
+          <t xml:space="preserve">~UC_Sets: T_S: </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -478,45 +478,35 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>UC_NCAP~2020</t>
+          <t>UC_NCAP~2025</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>UC_NCAP~2025</t>
+          <t>UC_NCAP~2030</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>UC_NCAP~2030</t>
+          <t>UC_NCAP~2035</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>UC_NCAP~2035</t>
+          <t>UC_NCAP~2055</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>UC_NCAP~2040</t>
+          <t>UC_RHST</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>UC_NCAP~2050</t>
+          <t>UC_RHST~0</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
-        <is>
-          <t>UC_RHST</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>UC_RHST~0</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
         <is>
           <t>UC_Desc</t>
         </is>
@@ -525,17 +515,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAX_VHTBEV_UPTAKE</t>
+          <t>MAX_PHEV_UPTAKE</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>T_F_V*BEV*,T_F_V*H2R*</t>
+          <t>T_P_C*PhEV*</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -545,22 +535,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-0.99</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-0.75</t>
+          <t>-0.98</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-0.3</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-0.83</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -570,68 +560,53 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Max number of BEV cars per year</t>
+          <t>Max number of PHEV cars per year</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
-          <t>T_F_V*,-T_F_V*BEV*,-T_F_V*H2R*</t>
+          <t>T_P_C*,-T_P_C*PHEV*</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>0.17</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">~UC_Sets: T_S: </t>
+          <t>~UC_Sets: R_S: AllRegions</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>~UC_Sets: R_S: AllRegions</t>
+          <t xml:space="preserve">~UC_Sets: T_S: </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -683,7 +658,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>UC_NCAP~2055</t>
+          <t>UC_NCAP~2040</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -705,12 +680,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MAX_PHEV_UPTAKE</t>
+          <t>MAX_BEV_UPTAKE</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>T_P_C*PhEV*</t>
+          <t>T_P_C*BEV*,T_P_C*H2R*</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -725,22 +700,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-0.99</t>
+          <t>-0.97</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-0.98</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>-0.58</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>-0.83</t>
+          <t>-9.99999999995449e-06</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -755,48 +730,48 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Max number of PHEV cars per year</t>
+          <t>Max number of BEV cars per year</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="C12" t="inlineStr">
         <is>
-          <t>T_P_C*,-T_P_C*PHEV*</t>
+          <t>T_P_C*,-T_P_C*BEV*,-T_P_C*H2R*</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.99999</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">~UC_Sets: T_S: </t>
+          <t>~UC_Sets: R_S: AllRegions</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>~UC_Sets: R_S: AllRegions</t>
+          <t xml:space="preserve">~UC_Sets: T_S: </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -848,7 +823,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>UC_NCAP~2040</t>
+          <t>UC_NCAP~2055</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -870,12 +845,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MAX_BEV_UPTAKE</t>
+          <t>MAX_PHEV_UPTAKE_commercial</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>T_P_C*BEV*,T_P_C*H2R*</t>
+          <t>T_C_C*PhEV*</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -890,22 +865,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-0.97</t>
+          <t>-0.99</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>-0.98</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>-0.58</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>-9.99999999995449e-06</t>
+          <t>-0.83</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -920,48 +895,48 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Max number of BEV cars per year</t>
+          <t>Max number of PHEV commercial cars per year</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="C19" t="inlineStr">
         <is>
-          <t>T_P_C*,-T_P_C*BEV*,-T_P_C*H2R*</t>
+          <t>T_C_C*,-T_C_C*PHEV*</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.99999</t>
+          <t>0.17</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">~UC_Sets: T_S: </t>
+          <t>~UC_Sets: R_S: AllRegions</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>~UC_Sets: R_S: AllRegions</t>
+          <t xml:space="preserve">~UC_Sets: T_S: </t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1013,7 +988,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>UC_NCAP~2055</t>
+          <t>UC_NCAP~2040</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1035,12 +1010,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MAX_PHEV_UPTAKE_commercial</t>
+          <t>MAX_BEV_UPTAKE_commercial</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>T_C_C*PhEV*</t>
+          <t>T_C_C*BEV*,T_C_C*H2R*</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1055,22 +1030,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-0.99</t>
+          <t>-0.97</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>-0.98</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>-0.58</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>-0.83</t>
+          <t>-9.99999999995449e-06</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1085,48 +1060,48 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Max number of PHEV commercial cars per year</t>
+          <t>Max number of BEV commercial cars per year</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="C26" t="inlineStr">
         <is>
-          <t>T_C_C*,-T_C_C*PHEV*</t>
+          <t>T_C_C*,-T_C_C*BEV*,-T_C_C*H2R*</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.99999</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">~UC_Sets: T_S: </t>
+          <t>~UC_Sets: R_S: AllRegions</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>~UC_Sets: R_S: AllRegions</t>
+          <t xml:space="preserve">~UC_Sets: T_S: </t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1163,35 +1138,45 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>UC_NCAP~2020</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>UC_NCAP~2025</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>UC_NCAP~2030</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>UC_NCAP~2035</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>UC_NCAP~2040</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>UC_NCAP~2050</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
         <is>
           <t>UC_RHST</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="M31" t="inlineStr">
         <is>
           <t>UC_RHST~0</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="N31" t="inlineStr">
         <is>
           <t>UC_Desc</t>
         </is>
@@ -1200,17 +1185,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MAX_BEV_UPTAKE_commercial</t>
+          <t>MAX_VHTBEV_UPTAKE</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>T_C_C*BEV*,T_C_C*H2R*</t>
+          <t>T_F_V*BEV*,T_F_V*H2R*</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1220,22 +1205,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>-0.97</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>-0.75</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>-0.58</t>
+          <t>-0.3</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>-9.99999999995449e-06</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1245,39 +1230,54 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>Max number of BEV commercial cars per year</t>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Max number of BEV cars per year</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="C33" t="inlineStr">
         <is>
-          <t>T_C_C*,-T_C_C*BEV*,-T_C_C*H2R*</t>
+          <t>T_F_V*,-T_F_V*BEV*,-T_F_V*H2R*</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>0.99999</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1303,14 +1303,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t xml:space="preserve">~UC_Sets: T_E: </t>
+          <t>~UC_Sets: R_S: AllRegions</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>~UC_Sets: R_S: AllRegions</t>
+          <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1369,7 +1369,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UC_SOLARPV_UTILITY</t>
+          <t>UC_SOLARPV_GRDIST</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1379,12 +1379,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ESO*UTI*</t>
+          <t>ESO*DIST*</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1399,631 +1399,631 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Ground based solar (tracking and fixed)</t>
+          <t>Ground based solar (fixed - distributed)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2030</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>5.99</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2030</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>8.15</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2040</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>9.68</t>
+          <t>1.68</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2060</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>9.9</t>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>~UC_Sets: R_S: AllRegions</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">~UC_Sets: T_E: </t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>~UC_T</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>UC_N</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Pset_CI</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Pset_CO</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>LimType</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>UC_NCAP</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>UC_RHST</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>UC_RHST~0</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>UC_Desc</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">~UC_Sets: T_E: </t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_S: AllRegions</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>~UC_T</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>UC_N</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Pset_Set</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Pset_PN</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>LimType</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>UC_CAP</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>UC_RHST</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>UC_RHST~0</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>UC_Desc</t>
+          <t>SOLAR_LO_Growth_rate</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ELCSOL</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ELCDD</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>LO</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>SOLAR minimal growth rate per year</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UC_SOLARPV_GRDIST</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
+          <t>~UC_Sets: R_E: AllRegions</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">~UC_Sets: T_E: </t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>~UC_T</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>UC_N</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Pset_Set</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Pset_PN</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>LimType</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>UC_CAP</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>UC_RHSRT~NI</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>UC_RHSRT~SI</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>UC_RHSRT~0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>UC_Desc</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>UC_SOLARPV_RES</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>ELE</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>ESO*DIST*</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ESOL*RES*</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>UP</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Ground based solar (fixed - distributed)</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="D15" t="inlineStr">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>SOLAR residential rooftop potential</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="D18" t="inlineStr">
         <is>
           <t>2030</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.4</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>1.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>~UC_Sets: R_E: AllRegions</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_S: AllRegions</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>UC_N</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Pset_CI</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Pset_CO</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>LimType</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>UC_NCAP</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>UC_RHST</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>UC_RHST~0</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>UC_Desc</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>SOLAR_LO_Growth_rate</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>ELCSOL</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>ELCDD</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>LO</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>SOLAR minimal growth rate per year</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">~UC_Sets: T_E: </t>
+          <t>UC_N</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Pset_Set</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Pset_PN</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>LimType</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>UC_CAP</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>UC_RHSRTS~NI</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>UC_RHSRTS~SI</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>UC_RHSRTS~0</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>UC_Desc</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
+          <t>UC_SOLARPV_COM</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>ELE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>ESOL*COM*</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>SOLAR commercial rooftop potential</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>5.1</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>1.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>~UC_Sets: R_S: AllRegions</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">~UC_Sets: T_E: </t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>UC_N</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Pset_Set</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Pset_PN</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>LimType</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>UC_CAP</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>UC_RHSRT~NI</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>UC_RHSRT~SI</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>UC_RHSRT~0</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>UC_Desc</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>UC_SOLARPV_RES</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>ELE</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>ESOL*RES*</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>UP</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>SOLAR residential rooftop potential</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2030</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>1.4</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2050</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>4.1</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>1.4</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">~UC_Sets: T_E: </t>
+          <t>UC_N</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Pset_Set</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Pset_PN</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>LimType</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>UC_CAP</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>UC_RHST</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>UC_RHST~0</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>UC_Desc</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
+          <t>UC_SOLARPV_UTILITY</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>~UC_T</t>
+          <t>ELE</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>ESO*UTI*</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Ground based solar (tracking and fixed)</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>UC_N</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Pset_Set</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Pset_PN</t>
-        </is>
-      </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>LimType</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>UC_CAP</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>UC_RHSRTS~NI</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>UC_RHSRTS~SI</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>UC_RHSRTS~0</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>UC_Desc</t>
+          <t>5.99</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>UC_SOLARPV_COM</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>ELE</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>ESOL*COM*</t>
-        </is>
-      </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>UP</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>2030</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>SOLAR commercial rooftop potential</t>
+          <t>8.15</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="D36" t="inlineStr">
         <is>
-          <t>2030</t>
+          <t>2040</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2.5</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>0.8</t>
+          <t>9.68</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="D37" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>2060</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>5.1</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>1.7</t>
+          <t>9.9</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">~UC_Sets: T_E: </t>
+          <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
+          <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2621,12 +2621,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Cset_Set</t>
+          <t>Cset_CN</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Cset_CN</t>
+          <t>Pset_PN</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -2648,12 +2648,17 @@
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
-          <t>COM_TAXNET</t>
+          <t>COST</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>COA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>TOTCO2</t>
+          <t>EXPCOA1</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -2663,19 +2668,24 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>3.71</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="C4" t="inlineStr">
         <is>
-          <t>COM_TAXNET</t>
+          <t>COST</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>COA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>TOTCO2</t>
+          <t>EXPCOA1</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -2685,19 +2695,24 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.045</t>
+          <t>4.1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
-          <t>COM_TAXNET</t>
+          <t>COST</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>COA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>TOTCO2</t>
+          <t>EXPCOA1</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -2707,19 +2722,24 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>4.35</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="C6" t="inlineStr">
         <is>
-          <t>COM_TAXNET</t>
+          <t>COST</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>COA</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>TOTCO2</t>
+          <t>EXPCOA1</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -2729,19 +2749,24 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>4.48</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
-          <t>COM_TAXNET</t>
+          <t>COST</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>COA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>TOTCO2</t>
+          <t>EXPCOA1</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -2751,19 +2776,24 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>4.61</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="C8" t="inlineStr">
         <is>
-          <t>COM_TAXNET</t>
+          <t>COST</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>COA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>TOTCO2</t>
+          <t>EXPCOA1</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -2773,19 +2803,24 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="C9" t="inlineStr">
         <is>
-          <t>COM_TAXNET</t>
+          <t>COST</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>COA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>TOTCO2</t>
+          <t>EXPCOA1</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -2795,19 +2830,24 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.095</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="C10" t="inlineStr">
         <is>
-          <t>COM_TAXNET</t>
+          <t>COST</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>COA</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>TOTCO2</t>
+          <t>EXPCOA1</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -2817,19 +2857,24 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="C11" t="inlineStr">
         <is>
-          <t>COM_TAXNET</t>
+          <t>COST</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>COA</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>TOTCO2</t>
+          <t>EXPCOA1</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -2839,19 +2884,24 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="C12" t="inlineStr">
         <is>
-          <t>COM_TAXNET</t>
+          <t>COST</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>COA</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>TOTCO2</t>
+          <t>EXPCOA1</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -2890,17 +2940,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Cset_CN</t>
+          <t>Pset_PN</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Pset_PN</t>
+          <t>Pset_Set</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Cset_CD</t>
+          <t>Pset_CI</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -2917,125 +2967,135 @@
     <row r="16">
       <c r="C16" t="inlineStr">
         <is>
-          <t>COST</t>
+          <t>NCAP_DRATE</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>COA</t>
+          <t>R*,C*,T_*BEV*,T_*H2*</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>EXPCOA1</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
+          <t>DMD</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>\I:</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>NCAP_DRATE</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>E*SOL*</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ELE</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>COST</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>COA</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>EXPCOA1</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>\I:</t>
+        </is>
+      </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>COST</t>
+          <t>NCAP_DRATE</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>COA</t>
+          <t>E*SOL*</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>EXPCOA1</t>
+          <t>ELE</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2030</t>
+          <t>2040</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>\I:</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>COST</t>
+          <t>NCAP_DRATE</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>COA</t>
+          <t>E*SOL*</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>EXPCOA1</t>
+          <t>ELE</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2035</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="C20" t="inlineStr">
         <is>
-          <t>COST</t>
+          <t>FIXOM</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>COA</t>
+          <t>E*SOL*</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>EXPCOA1</t>
+          <t>ELE</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -3045,336 +3105,276 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>4.61</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>COST</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>COA</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>EXPCOA1</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>2045</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>COST</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>COA</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>EXPCOA1</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>2050</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>~TFM_INS</t>
         </is>
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>TimeSlice</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>LimType</t>
+        </is>
+      </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>COST</t>
+          <t>Attribute</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>COA</t>
+          <t>Cset_Set</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>EXPCOA1</t>
+          <t>Cset_CN</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Cset_CD</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2055</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>AllRegions</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="C24" t="inlineStr">
         <is>
-          <t>COST</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>COA</t>
+          <t>COM_TAXNET</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>EXPCOA1</t>
+          <t>TOTCO2</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2060</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.04</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="C25" t="inlineStr">
         <is>
-          <t>COST</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>COA</t>
+          <t>COM_TAXNET</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>EXPCOA1</t>
+          <t>TOTCO2</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0.045</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>COM_TAXNET</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>TOTCO2</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>0.05</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>~TFM_INS</t>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>COM_TAXNET</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>TOTCO2</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2035</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>0.06</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>TimeSlice</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>LimType</t>
-        </is>
-      </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Attribute</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Pset_PN</t>
+          <t>COM_TAXNET</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Pset_Set</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Pset_CI</t>
+          <t>TOTCO2</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>2040</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>AllRegions</t>
+          <t>0.07</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="C29" t="inlineStr">
         <is>
-          <t>NCAP_DRATE</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>R*,C*,T_*BEV*,T_*H2*</t>
+          <t>COM_TAXNET</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>DMD</t>
+          <t>TOTCO2</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2045</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.08</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>\I:</t>
-        </is>
-      </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>NCAP_DRATE</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>E*SOL*</t>
+          <t>COM_TAXNET</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ELE</t>
+          <t>TOTCO2</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.095</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>\I:</t>
-        </is>
-      </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NCAP_DRATE</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>E*SOL*</t>
+          <t>COM_TAXNET</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ELE</t>
+          <t>TOTCO2</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2040</t>
+          <t>2055</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>\I:</t>
-        </is>
-      </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NCAP_DRATE</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>E*SOL*</t>
+          <t>COM_TAXNET</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ELE</t>
+          <t>TOTCO2</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2060</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0.13</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="C33" t="inlineStr">
         <is>
-          <t>FIXOM</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>E*SOL*</t>
+          <t>COM_TAXNET</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ELE</t>
+          <t>TOTCO2</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2040</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -31522,14 +31522,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t xml:space="preserve">~UC_Sets: T_S: </t>
+          <t>~UC_Sets: R_S: AllRegions</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>~UC_Sets: R_S: AllRegions</t>
+          <t xml:space="preserve">~UC_Sets: T_S: </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -31576,20 +31576,25 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>UC_NCAP~2055</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>UC_NCAP~2060</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>UC_RHST</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>UC_RHST~0</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>UC_Desc</t>
         </is>
@@ -31598,12 +31603,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ICE_Car_ban</t>
+          <t>HYB_Car_ban</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>T_P_C*ICE*</t>
+          <t>T_P_C*HYB*</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -31618,68 +31623,78 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Internal combustion cars number limit and futher ban</t>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Hybrid cars number limit in new sales</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
-          <t>T_P_C*,-T_P_C*ICE*</t>
+          <t>T_P_C*,-T_P_C*HYB*</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-0.95</t>
+          <t>-0.8</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-0.95</t>
+          <t>-0.8</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-0.95</t>
+          <t>-0.8</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>-0.8</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">~UC_Sets: T_S: </t>
+          <t>~UC_Sets: R_S: AllRegions</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>~UC_Sets: R_S: AllRegions</t>
+          <t xml:space="preserve">~UC_Sets: T_S: </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -31726,25 +31741,20 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>UC_NCAP~2055</t>
+          <t>UC_NCAP~2060</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>UC_NCAP~2060</t>
+          <t>UC_RHST</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>UC_RHST</t>
+          <t>UC_RHST~0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
-        <is>
-          <t>UC_RHST~0</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
         <is>
           <t>UC_Desc</t>
         </is>
@@ -31753,12 +31763,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>HYB_Car_ban</t>
+          <t>ICE_Car_ban</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>T_P_C*HYB*</t>
+          <t>T_P_C*ICE*</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -31773,64 +31783,54 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Hybrid cars number limit in new sales</t>
+          <t>Internal combustion cars number limit and futher ban</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="C12" t="inlineStr">
         <is>
-          <t>T_P_C*,-T_P_C*HYB*</t>
+          <t>T_P_C*,-T_P_C*ICE*</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-0.8</t>
+          <t>-0.95</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-0.8</t>
+          <t>-0.95</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>-0.8</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>-0.8</t>
+          <t>-0.95</t>
         </is>
       </c>
     </row>
